--- a/reports/results/ZarnowitzRegressions_93_137.xlsx
+++ b/reports/results/ZarnowitzRegressions_93_137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>m1</t>
   </si>
@@ -45,6 +45,9 @@
     <t>rsquared</t>
   </si>
   <si>
+    <t>nobs</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
@@ -114,25 +117,13 @@
     <t>LH</t>
   </si>
   <si>
-    <t>model_type_id</t>
-  </si>
-  <si>
-    <t>intercept</t>
-  </si>
-  <si>
-    <t>tstat_intercept</t>
-  </si>
-  <si>
-    <t>pval_intercept</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
-    <t>tstat_beta</t>
-  </si>
-  <si>
-    <t>pval_beta</t>
+    <t>tstat_beta=0</t>
+  </si>
+  <si>
+    <t>pval_beta=0</t>
   </si>
 </sst>
 </file>
@@ -490,13 +481,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,10 +515,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>93</v>
@@ -556,10 +550,13 @@
       <c r="J2">
         <v>0.2578059046512005</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>93</v>
@@ -588,10 +585,13 @@
       <c r="J3">
         <v>0.3648567497107602</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>93</v>
@@ -620,10 +620,13 @@
       <c r="J4">
         <v>0.3881925469082258</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>93</v>
@@ -652,10 +655,13 @@
       <c r="J5">
         <v>0.108074830349556</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>93</v>
@@ -684,10 +690,13 @@
       <c r="J6">
         <v>0.2800699798549403</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>93</v>
@@ -716,10 +725,13 @@
       <c r="J7">
         <v>0.2665705442841352</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>93</v>
@@ -748,10 +760,13 @@
       <c r="J8">
         <v>0.4775442170835695</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -780,10 +795,13 @@
       <c r="J9">
         <v>0.4142673318021556</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>93</v>
@@ -812,10 +830,13 @@
       <c r="J10">
         <v>0.344994260588297</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>93</v>
@@ -844,10 +865,13 @@
       <c r="J11">
         <v>0.382070747757505</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>93</v>
@@ -876,10 +900,13 @@
       <c r="J12">
         <v>0.382409737140591</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>93</v>
@@ -908,10 +935,13 @@
       <c r="J13">
         <v>0.3919502270610841</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>93</v>
@@ -940,10 +970,13 @@
       <c r="J14">
         <v>0.1946048228856678</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>93</v>
@@ -972,10 +1005,13 @@
       <c r="J15">
         <v>0.2236699759692282</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>93</v>
@@ -1004,10 +1040,13 @@
       <c r="J16">
         <v>0.4065639056907805</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>93</v>
@@ -1036,10 +1075,13 @@
       <c r="J17">
         <v>0.5043362509348963</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>93</v>
@@ -1068,10 +1110,13 @@
       <c r="J18">
         <v>0.4370416248796665</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>93</v>
@@ -1100,10 +1145,13 @@
       <c r="J19">
         <v>0.3078469020752861</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>93</v>
@@ -1132,10 +1180,13 @@
       <c r="J20">
         <v>0.2729350675279747</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>93</v>
@@ -1164,10 +1215,13 @@
       <c r="J21">
         <v>0.2989290696697742</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>93</v>
@@ -1196,10 +1250,13 @@
       <c r="J22">
         <v>0.2674984483364248</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>93</v>
@@ -1228,10 +1285,13 @@
       <c r="J23">
         <v>0.407992735044498</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>93</v>
@@ -1259,6 +1319,9 @@
       </c>
       <c r="J24">
         <v>0.2590912389628204</v>
+      </c>
+      <c r="K24">
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -1268,15 +1331,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -1288,683 +1351,467 @@
         <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>0.2116416813558138</v>
       </c>
       <c r="C2">
-        <v>0.0002742454922241125</v>
+        <v>-0.3000830621281939</v>
       </c>
       <c r="D2">
-        <v>0.6181264912478007</v>
+        <v>-7.513577420796998</v>
       </c>
       <c r="E2">
-        <v>0.5366149965871598</v>
+        <v>1.156564614245906E-13</v>
       </c>
       <c r="F2">
-        <v>-0.3000830621281939</v>
-      </c>
-      <c r="G2">
-        <v>-7.513577420796998</v>
-      </c>
-      <c r="H2">
-        <v>1.156564614245906E-13</v>
-      </c>
-      <c r="I2">
-        <v>0.04702708551643842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>0.2801710191734165</v>
       </c>
       <c r="C3">
-        <v>0.0002427079111314059</v>
+        <v>0.446877409671916</v>
       </c>
       <c r="D3">
-        <v>0.3339203290456352</v>
+        <v>2.758865553045278</v>
       </c>
       <c r="E3">
-        <v>0.7387810106014212</v>
+        <v>0.006325018123695745</v>
       </c>
       <c r="F3">
-        <v>0.446877409671916</v>
-      </c>
-      <c r="G3">
-        <v>2.758865553045278</v>
-      </c>
-      <c r="H3">
-        <v>0.006325018123695745</v>
-      </c>
-      <c r="I3">
-        <v>0.03579930953153843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>0.2815702600701353</v>
       </c>
       <c r="C4">
-        <v>-0.0004637870954106492</v>
+        <v>-0.03043939601084521</v>
       </c>
       <c r="D4">
-        <v>-0.5125438462411308</v>
+        <v>-0.2814098150399593</v>
       </c>
       <c r="E4">
-        <v>0.6088222398359844</v>
+        <v>0.778679938253127</v>
       </c>
       <c r="F4">
-        <v>-0.03043939601084521</v>
-      </c>
-      <c r="G4">
-        <v>-0.2814098150399593</v>
-      </c>
-      <c r="H4">
-        <v>0.778679938253127</v>
-      </c>
-      <c r="I4">
-        <v>0.0003861507519499208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>0.09070714598233121</v>
       </c>
       <c r="C5">
-        <v>0.0002157842132600778</v>
+        <v>-0.3535542865206982</v>
       </c>
       <c r="D5">
-        <v>0.2883329195460552</v>
+        <v>-3.565313378017583</v>
       </c>
       <c r="E5">
-        <v>0.7732321462347178</v>
+        <v>0.0004045968462185971</v>
       </c>
       <c r="F5">
-        <v>-0.3535542865206982</v>
-      </c>
-      <c r="G5">
-        <v>-3.565313378017583</v>
-      </c>
-      <c r="H5">
-        <v>0.0004045968462185971</v>
-      </c>
-      <c r="I5">
-        <v>0.02897453259697724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>0.2451335443260376</v>
       </c>
       <c r="C6">
-        <v>2.157832068216635E-05</v>
+        <v>-0.2093512383712727</v>
       </c>
       <c r="D6">
-        <v>0.03881793057927754</v>
+        <v>-5.103536912650705</v>
       </c>
       <c r="E6">
-        <v>0.9690423218316004</v>
+        <v>3.900838950196188E-07</v>
       </c>
       <c r="F6">
-        <v>-0.2093512383712727</v>
-      </c>
-      <c r="G6">
-        <v>-5.103536912650705</v>
-      </c>
-      <c r="H6">
-        <v>3.900838950196188E-07</v>
-      </c>
-      <c r="I6">
-        <v>0.02226073764378866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>0.2162701856041105</v>
       </c>
       <c r="C7">
-        <v>-7.187471737169245E-05</v>
+        <v>-0.1203380377458096</v>
       </c>
       <c r="D7">
-        <v>-0.1559297306668216</v>
+        <v>-2.43060992610465</v>
       </c>
       <c r="E7">
-        <v>0.8761159200934499</v>
+        <v>0.01522633614514879</v>
       </c>
       <c r="F7">
-        <v>-0.1203380377458096</v>
-      </c>
-      <c r="G7">
-        <v>-2.43060992610465</v>
-      </c>
-      <c r="H7">
-        <v>0.01522633614514879</v>
-      </c>
-      <c r="I7">
-        <v>0.00513768519608071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>0.431587904380147</v>
       </c>
       <c r="C8">
-        <v>-6.522625154753038E-05</v>
+        <v>-0.07453901333742941</v>
       </c>
       <c r="D8">
-        <v>-0.09925081669956809</v>
+        <v>-2.373785722064115</v>
       </c>
       <c r="E8">
-        <v>0.920956516462446</v>
+        <v>0.01777112889351135</v>
       </c>
       <c r="F8">
-        <v>-0.07453901333742941</v>
-      </c>
-      <c r="G8">
-        <v>-2.373785722064115</v>
-      </c>
-      <c r="H8">
-        <v>0.01777112889351135</v>
-      </c>
-      <c r="I8">
-        <v>0.004901433365434693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>0.3827739561591336</v>
       </c>
       <c r="C9">
-        <v>-3.985156275175321E-05</v>
+        <v>-0.1243517846769505</v>
       </c>
       <c r="D9">
-        <v>-0.05067059611157856</v>
+        <v>-3.782547904828585</v>
       </c>
       <c r="E9">
-        <v>0.9595968528654772</v>
+        <v>0.0001632622909575011</v>
       </c>
       <c r="F9">
-        <v>-0.1243517846769505</v>
-      </c>
-      <c r="G9">
-        <v>-3.782547904828585</v>
-      </c>
-      <c r="H9">
-        <v>0.0001632622909575011</v>
-      </c>
-      <c r="I9">
-        <v>0.01235221784292395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>0.2943916382405257</v>
       </c>
       <c r="C10">
-        <v>-7.478622909407077E-05</v>
+        <v>-0.1553306512942766</v>
       </c>
       <c r="D10">
-        <v>-0.09022417617718842</v>
+        <v>-4.017577992907789</v>
       </c>
       <c r="E10">
-        <v>0.9281248665144252</v>
+        <v>6.263950142611186E-05</v>
       </c>
       <c r="F10">
-        <v>-0.1553306512942766</v>
-      </c>
-      <c r="G10">
-        <v>-4.017577992907789</v>
-      </c>
-      <c r="H10">
-        <v>6.263950142611186E-05</v>
-      </c>
-      <c r="I10">
-        <v>0.0139129070192745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>0.3500781465386609</v>
       </c>
       <c r="C11">
-        <v>3.287168828344316E-05</v>
+        <v>-0.08964569968028839</v>
       </c>
       <c r="D11">
-        <v>0.0443962963651831</v>
+        <v>-2.444465744967837</v>
       </c>
       <c r="E11">
-        <v>0.9645962616475561</v>
+        <v>0.01465681692476633</v>
       </c>
       <c r="F11">
-        <v>-0.08964569968028839</v>
-      </c>
-      <c r="G11">
-        <v>-2.444465744967837</v>
-      </c>
-      <c r="H11">
-        <v>0.01465681692476633</v>
-      </c>
-      <c r="I11">
-        <v>0.005196122205677778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>0.3416848881419843</v>
       </c>
       <c r="C12">
-        <v>6.988252493112247E-05</v>
+        <v>-0.1168934717400942</v>
       </c>
       <c r="D12">
-        <v>0.09304035787630428</v>
+        <v>-3.225419058574936</v>
       </c>
       <c r="E12">
-        <v>0.925887790063751</v>
+        <v>0.001293493366114917</v>
       </c>
       <c r="F12">
-        <v>-0.1168934717400942</v>
-      </c>
-      <c r="G12">
-        <v>-3.225419058574936</v>
-      </c>
-      <c r="H12">
-        <v>0.001293493366114917</v>
-      </c>
-      <c r="I12">
-        <v>0.009011866000516733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>0.3316566413202329</v>
       </c>
       <c r="C13">
-        <v>-8.250049949279932E-05</v>
+        <v>-0.2107313205824784</v>
       </c>
       <c r="D13">
-        <v>-0.09937369542566046</v>
+        <v>-6.361532682246955</v>
       </c>
       <c r="E13">
-        <v>0.9208589774655691</v>
+        <v>2.882836510523766E-10</v>
       </c>
       <c r="F13">
-        <v>-0.2107313205824784</v>
-      </c>
-      <c r="G13">
-        <v>-6.361532682246955</v>
-      </c>
-      <c r="H13">
-        <v>2.882836510523766E-10</v>
-      </c>
-      <c r="I13">
-        <v>0.0341664448091803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>0.1483263380332086</v>
       </c>
       <c r="C14">
-        <v>0.0002663331320420483</v>
+        <v>-0.2293139925026371</v>
       </c>
       <c r="D14">
-        <v>0.3820044379675299</v>
+        <v>-4.199896836922624</v>
       </c>
       <c r="E14">
-        <v>0.7025290205158012</v>
+        <v>2.877782235477359E-05</v>
       </c>
       <c r="F14">
-        <v>-0.2293139925026371</v>
-      </c>
-      <c r="G14">
-        <v>-4.199896836922624</v>
-      </c>
-      <c r="H14">
-        <v>2.877782235477359E-05</v>
-      </c>
-      <c r="I14">
-        <v>0.01518469284737778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>0.1620600311589256</v>
       </c>
       <c r="C15">
-        <v>3.032867833471663E-05</v>
+        <v>-0.2490766476354619</v>
       </c>
       <c r="D15">
-        <v>0.02993281612219279</v>
+        <v>-4.933804305681321</v>
       </c>
       <c r="E15">
-        <v>0.9761258550249763</v>
+        <v>9.258084436330004E-07</v>
       </c>
       <c r="F15">
-        <v>-0.2490766476354619</v>
-      </c>
-      <c r="G15">
-        <v>-4.933804305681321</v>
-      </c>
-      <c r="H15">
-        <v>9.258084436330004E-07</v>
-      </c>
-      <c r="I15">
-        <v>0.02083500899001056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>0.3328015984597057</v>
       </c>
       <c r="C16">
-        <v>-0.0001196801070999989</v>
+        <v>-0.2342657766611161</v>
       </c>
       <c r="D16">
-        <v>-0.1481036239034234</v>
+        <v>-7.308176137572438</v>
       </c>
       <c r="E16">
-        <v>0.8822870889899468</v>
+        <v>5.070486465290159E-13</v>
       </c>
       <c r="F16">
-        <v>-0.2342657766611161</v>
-      </c>
-      <c r="G16">
-        <v>-7.308176137572438</v>
-      </c>
-      <c r="H16">
-        <v>5.070486465290159E-13</v>
-      </c>
-      <c r="I16">
-        <v>0.04460415689271058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>0.4229437727028915</v>
       </c>
       <c r="C17">
-        <v>-0.0002892405708507539</v>
+        <v>-0.02183646381807278</v>
       </c>
       <c r="D17">
-        <v>-0.2875564003858119</v>
+        <v>-0.6461393757591182</v>
       </c>
       <c r="E17">
-        <v>0.773738449168155</v>
+        <v>0.518318801489883</v>
       </c>
       <c r="F17">
-        <v>-0.02183646381807278</v>
-      </c>
-      <c r="G17">
-        <v>-0.6461393757591182</v>
-      </c>
-      <c r="H17">
-        <v>0.518318801489883</v>
-      </c>
-      <c r="I17">
-        <v>0.0003651300547113934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>0.3663248281810325</v>
       </c>
       <c r="C18">
-        <v>0.0003384006069878335</v>
+        <v>-0.1792531776508124</v>
       </c>
       <c r="D18">
-        <v>0.2960921501158403</v>
+        <v>-5.616561221641972</v>
       </c>
       <c r="E18">
-        <v>0.76721344772028</v>
+        <v>2.444295801457817E-08</v>
       </c>
       <c r="F18">
-        <v>-0.1792531776508124</v>
-      </c>
-      <c r="G18">
-        <v>-5.616561221641972</v>
-      </c>
-      <c r="H18">
-        <v>2.444295801457817E-08</v>
-      </c>
-      <c r="I18">
-        <v>0.02683499105778853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>0.2439263247309775</v>
       </c>
       <c r="C19">
-        <v>0.0001193771332952891</v>
+        <v>-0.2896669007874166</v>
       </c>
       <c r="D19">
-        <v>0.1597189710199908</v>
+        <v>-7.834244306465234</v>
       </c>
       <c r="E19">
-        <v>0.8731306504283634</v>
+        <v>1.071811920206088E-14</v>
       </c>
       <c r="F19">
-        <v>-0.2896669007874166</v>
-      </c>
-      <c r="G19">
-        <v>-7.834244306465234</v>
-      </c>
-      <c r="H19">
-        <v>1.071811920206088E-14</v>
-      </c>
-      <c r="I19">
-        <v>0.05091806641776275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>0.253016257509177</v>
       </c>
       <c r="C20">
-        <v>-3.47381780324556E-05</v>
+        <v>-0.3032799926287224</v>
       </c>
       <c r="D20">
-        <v>-0.02811580255884787</v>
+        <v>-8.568743246071278</v>
       </c>
       <c r="E20">
-        <v>0.9775746941888006</v>
+        <v>3.340352402417055E-17</v>
       </c>
       <c r="F20">
-        <v>-0.3032799926287224</v>
-      </c>
-      <c r="G20">
-        <v>-8.568743246071278</v>
-      </c>
-      <c r="H20">
-        <v>3.340352402417055E-17</v>
-      </c>
-      <c r="I20">
-        <v>0.06031045828446513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>0.2672194160208408</v>
       </c>
       <c r="C21">
-        <v>-0.0002704478234244154</v>
+        <v>-0.2659504998900541</v>
       </c>
       <c r="D21">
-        <v>-0.2338878219609274</v>
+        <v>-7.400064488431928</v>
       </c>
       <c r="E21">
-        <v>0.8151139146570654</v>
+        <v>2.629193830926971E-13</v>
       </c>
       <c r="F21">
-        <v>-0.2659504998900541</v>
-      </c>
-      <c r="G21">
-        <v>-7.400064488431928</v>
-      </c>
-      <c r="H21">
-        <v>2.629193830926971E-13</v>
-      </c>
-      <c r="I21">
-        <v>0.04568129636726004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>0.2154872175656835</v>
       </c>
       <c r="C22">
-        <v>0.0002145178504861091</v>
+        <v>-0.1919284488601789</v>
       </c>
       <c r="D22">
-        <v>0.1266386470300798</v>
+        <v>-4.210302432231959</v>
       </c>
       <c r="E22">
-        <v>0.8992486608312136</v>
+        <v>2.750314061575465E-05</v>
       </c>
       <c r="F22">
-        <v>-0.1919284488601789</v>
-      </c>
-      <c r="G22">
-        <v>-4.210302432231959</v>
-      </c>
-      <c r="H22">
-        <v>2.750314061575465E-05</v>
-      </c>
-      <c r="I22">
-        <v>0.01525887920638047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>0.3638443037605006</v>
       </c>
       <c r="C23">
-        <v>-0.0003245031361050317</v>
+        <v>-0.1239636145006076</v>
       </c>
       <c r="D23">
-        <v>-0.3422421672006711</v>
+        <v>-3.619604990536269</v>
       </c>
       <c r="E23">
-        <v>0.7322315186232256</v>
+        <v>0.0003079516405847861</v>
       </c>
       <c r="F23">
-        <v>-0.1239636145006076</v>
-      </c>
-      <c r="G23">
-        <v>-3.619604990536269</v>
-      </c>
-      <c r="H23">
-        <v>0.0003079516405847861</v>
-      </c>
-      <c r="I23">
-        <v>0.01132272305528115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>0.2084629373423389</v>
       </c>
       <c r="C24">
-        <v>-5.198165539802893E-05</v>
+        <v>-0.08029478126603858</v>
       </c>
       <c r="D24">
-        <v>-0.06101957686297084</v>
+        <v>-1.399006638724708</v>
       </c>
       <c r="E24">
-        <v>0.9513561233284511</v>
+        <v>0.162129021159789</v>
       </c>
       <c r="F24">
-        <v>-0.08029478126603858</v>
-      </c>
-      <c r="G24">
-        <v>-1.399006638724708</v>
-      </c>
-      <c r="H24">
-        <v>0.162129021159789</v>
-      </c>
-      <c r="I24">
-        <v>0.002003383091888855</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -1974,15 +1821,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -1994,683 +1841,467 @@
         <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>0.2519437486129482</v>
       </c>
       <c r="C2">
-        <v>0.0002742454922241125</v>
+        <v>-0.2637799056856009</v>
       </c>
       <c r="D2">
-        <v>0.6181264912478007</v>
+        <v>-7.032855901729554</v>
       </c>
       <c r="E2">
-        <v>0.5366149965871598</v>
+        <v>3.47461569216104E-12</v>
       </c>
       <c r="F2">
-        <v>-0.3000830621281939</v>
-      </c>
-      <c r="G2">
-        <v>-7.513577420796998</v>
-      </c>
-      <c r="H2">
-        <v>1.156564614245906E-13</v>
-      </c>
-      <c r="I2">
-        <v>0.04702708551643842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>0.3629318799788601</v>
       </c>
       <c r="C3">
-        <v>0.0002427079111314059</v>
+        <v>0.4495014382381781</v>
       </c>
       <c r="D3">
-        <v>0.3339203290456352</v>
+        <v>3.351266678279365</v>
       </c>
       <c r="E3">
-        <v>0.7387810106014212</v>
+        <v>0.0009576957925352655</v>
       </c>
       <c r="F3">
-        <v>0.446877409671916</v>
-      </c>
-      <c r="G3">
-        <v>2.758865553045278</v>
-      </c>
-      <c r="H3">
-        <v>0.006325018123695745</v>
-      </c>
-      <c r="I3">
-        <v>0.03579930953153843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>93</v>
+        <v>0.3702314926302944</v>
       </c>
       <c r="C4">
-        <v>-0.0004637870954106492</v>
+        <v>0.05407531818804046</v>
       </c>
       <c r="D4">
-        <v>-0.5125438462411308</v>
+        <v>0.563184351736697</v>
       </c>
       <c r="E4">
-        <v>0.6088222398359844</v>
+        <v>0.5739248137454658</v>
       </c>
       <c r="F4">
-        <v>-0.03043939601084521</v>
-      </c>
-      <c r="G4">
-        <v>-0.2814098150399593</v>
-      </c>
-      <c r="H4">
-        <v>0.778679938253127</v>
-      </c>
-      <c r="I4">
-        <v>0.0003861507519499208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>0.1078769746123722</v>
       </c>
       <c r="C5">
-        <v>0.0002157842132600778</v>
+        <v>-0.3180422978417096</v>
       </c>
       <c r="D5">
-        <v>0.2883329195460552</v>
+        <v>-3.347219926136966</v>
       </c>
       <c r="E5">
-        <v>0.7732321462347178</v>
+        <v>0.0008887213326458386</v>
       </c>
       <c r="F5">
-        <v>-0.3535542865206982</v>
-      </c>
-      <c r="G5">
-        <v>-3.565313378017583</v>
-      </c>
-      <c r="H5">
-        <v>0.0004045968462185971</v>
-      </c>
-      <c r="I5">
-        <v>0.02897453259697724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>0.279569951544123</v>
       </c>
       <c r="C6">
-        <v>2.157832068216635E-05</v>
+        <v>-0.1719797699898626</v>
       </c>
       <c r="D6">
-        <v>0.03881793057927754</v>
+        <v>-4.376216153047372</v>
       </c>
       <c r="E6">
-        <v>0.9690423218316004</v>
+        <v>1.317884605431029E-05</v>
       </c>
       <c r="F6">
-        <v>-0.2093512383712727</v>
-      </c>
-      <c r="G6">
-        <v>-5.103536912650705</v>
-      </c>
-      <c r="H6">
-        <v>3.900838950196188E-07</v>
-      </c>
-      <c r="I6">
-        <v>0.02226073764378866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>0.2624740263462855</v>
       </c>
       <c r="C7">
-        <v>-7.187471737169245E-05</v>
+        <v>-0.08576921169648459</v>
       </c>
       <c r="D7">
-        <v>-0.1559297306668216</v>
+        <v>-1.892967225820535</v>
       </c>
       <c r="E7">
-        <v>0.8761159200934499</v>
+        <v>0.05861443805863428</v>
       </c>
       <c r="F7">
-        <v>-0.1203380377458096</v>
-      </c>
-      <c r="G7">
-        <v>-2.43060992610465</v>
-      </c>
-      <c r="H7">
-        <v>0.01522633614514879</v>
-      </c>
-      <c r="I7">
-        <v>0.00513768519608071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>0.4767826094438196</v>
       </c>
       <c r="C8">
-        <v>-6.522625154753038E-05</v>
+        <v>-0.04382040310772854</v>
       </c>
       <c r="D8">
-        <v>-0.09925081669956809</v>
+        <v>-1.479684164434177</v>
       </c>
       <c r="E8">
-        <v>0.920956516462446</v>
+        <v>0.1392328655831978</v>
       </c>
       <c r="F8">
-        <v>-0.07453901333742941</v>
-      </c>
-      <c r="G8">
-        <v>-2.373785722064115</v>
-      </c>
-      <c r="H8">
-        <v>0.01777112889351135</v>
-      </c>
-      <c r="I8">
-        <v>0.004901433365434693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>0.4142291411986245</v>
       </c>
       <c r="C9">
-        <v>-3.985156275175321E-05</v>
+        <v>-0.1012001729172166</v>
       </c>
       <c r="D9">
-        <v>-0.05067059611157856</v>
+        <v>-3.202489611508031</v>
       </c>
       <c r="E9">
-        <v>0.9595968528654772</v>
+        <v>0.001400009944799656</v>
       </c>
       <c r="F9">
-        <v>-0.1243517846769505</v>
-      </c>
-      <c r="G9">
-        <v>-3.782547904828585</v>
-      </c>
-      <c r="H9">
-        <v>0.0001632622909575011</v>
-      </c>
-      <c r="I9">
-        <v>0.01235221784292395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>0.3442801972136088</v>
       </c>
       <c r="C10">
-        <v>-7.478622909407077E-05</v>
+        <v>-0.1039439867869699</v>
       </c>
       <c r="D10">
-        <v>-0.09022417617718842</v>
+        <v>-2.842981905506656</v>
       </c>
       <c r="E10">
-        <v>0.9281248665144252</v>
+        <v>0.004548832743692889</v>
       </c>
       <c r="F10">
-        <v>-0.1553306512942766</v>
-      </c>
-      <c r="G10">
-        <v>-4.017577992907789</v>
-      </c>
-      <c r="H10">
-        <v>6.263950142611186E-05</v>
-      </c>
-      <c r="I10">
-        <v>0.0139129070192745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>0.3812523857066832</v>
       </c>
       <c r="C11">
-        <v>3.287168828344316E-05</v>
+        <v>-0.06523868920780558</v>
       </c>
       <c r="D11">
-        <v>0.0443962963651831</v>
+        <v>-1.852964189079994</v>
       </c>
       <c r="E11">
-        <v>0.9645962616475561</v>
+        <v>0.06414486411499028</v>
       </c>
       <c r="F11">
-        <v>-0.08964569968028839</v>
-      </c>
-      <c r="G11">
-        <v>-2.444465744967837</v>
-      </c>
-      <c r="H11">
-        <v>0.01465681692476633</v>
-      </c>
-      <c r="I11">
-        <v>0.005196122205677778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>0.3819964748042753</v>
       </c>
       <c r="C12">
-        <v>6.988252493112247E-05</v>
+        <v>-0.08230947226177142</v>
       </c>
       <c r="D12">
-        <v>0.09304035787630428</v>
+        <v>-2.385068088668542</v>
       </c>
       <c r="E12">
-        <v>0.925887790063751</v>
+        <v>0.01723803995492351</v>
       </c>
       <c r="F12">
-        <v>-0.1168934717400942</v>
-      </c>
-      <c r="G12">
-        <v>-3.225419058574936</v>
-      </c>
-      <c r="H12">
-        <v>0.001293493366114917</v>
-      </c>
-      <c r="I12">
-        <v>0.009011866000516733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>0.3890540234972301</v>
       </c>
       <c r="C13">
-        <v>-8.250049949279932E-05</v>
+        <v>-0.1627536224731886</v>
       </c>
       <c r="D13">
-        <v>-0.09937369542566046</v>
+        <v>-5.246793232155943</v>
       </c>
       <c r="E13">
-        <v>0.9208589774655691</v>
+        <v>1.843172449426364E-07</v>
       </c>
       <c r="F13">
-        <v>-0.2107313205824784</v>
-      </c>
-      <c r="G13">
-        <v>-6.361532682246955</v>
-      </c>
-      <c r="H13">
-        <v>2.882836510523766E-10</v>
-      </c>
-      <c r="I13">
-        <v>0.0341664448091803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>0.1891271111747517</v>
       </c>
       <c r="C14">
-        <v>0.0002663331320420483</v>
+        <v>-0.1840588907861077</v>
       </c>
       <c r="D14">
-        <v>0.3820044379675299</v>
+        <v>-3.6847794834643</v>
       </c>
       <c r="E14">
-        <v>0.7025290205158012</v>
+        <v>0.0002396125242395248</v>
       </c>
       <c r="F14">
-        <v>-0.2293139925026371</v>
-      </c>
-      <c r="G14">
-        <v>-4.199896836922624</v>
-      </c>
-      <c r="H14">
-        <v>2.877782235477359E-05</v>
-      </c>
-      <c r="I14">
-        <v>0.01518469284737778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>0.2210588525083328</v>
       </c>
       <c r="C15">
-        <v>3.032867833471663E-05</v>
+        <v>-0.1541352172252345</v>
       </c>
       <c r="D15">
-        <v>0.02993281612219279</v>
+        <v>-3.283337901591078</v>
       </c>
       <c r="E15">
-        <v>0.9761258550249763</v>
+        <v>0.001056893051486209</v>
       </c>
       <c r="F15">
-        <v>-0.2490766476354619</v>
-      </c>
-      <c r="G15">
-        <v>-4.933804305681321</v>
-      </c>
-      <c r="H15">
-        <v>9.258084436330004E-07</v>
-      </c>
-      <c r="I15">
-        <v>0.02083500899001056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>0.4011003258362188</v>
       </c>
       <c r="C16">
-        <v>-0.0001196801070999989</v>
+        <v>-0.2076333659214015</v>
       </c>
       <c r="D16">
-        <v>-0.1481036239034234</v>
+        <v>-7.253263350875048</v>
       </c>
       <c r="E16">
-        <v>0.8822870889899468</v>
+        <v>7.481877258969576E-13</v>
       </c>
       <c r="F16">
-        <v>-0.2342657766611161</v>
-      </c>
-      <c r="G16">
-        <v>-7.308176137572438</v>
-      </c>
-      <c r="H16">
-        <v>5.070486465290159E-13</v>
-      </c>
-      <c r="I16">
-        <v>0.04460415689271058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>0.4994278945275971</v>
       </c>
       <c r="C17">
-        <v>-0.0002892405708507539</v>
+        <v>0.05536369988285648</v>
       </c>
       <c r="D17">
-        <v>-0.2875564003858119</v>
+        <v>1.771532581060501</v>
       </c>
       <c r="E17">
-        <v>0.773738449168155</v>
+        <v>0.07673858806797554</v>
       </c>
       <c r="F17">
-        <v>-0.02183646381807278</v>
-      </c>
-      <c r="G17">
-        <v>-0.6461393757591182</v>
-      </c>
-      <c r="H17">
-        <v>0.518318801489883</v>
-      </c>
-      <c r="I17">
-        <v>0.0003651300547113934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>0.4334121473956303</v>
       </c>
       <c r="C18">
-        <v>0.0003384006069878335</v>
+        <v>-0.138017015267043</v>
       </c>
       <c r="D18">
-        <v>0.2960921501158403</v>
+        <v>-4.736568913933607</v>
       </c>
       <c r="E18">
-        <v>0.76721344772028</v>
+        <v>2.446218799403141E-06</v>
       </c>
       <c r="F18">
-        <v>-0.1792531776508124</v>
-      </c>
-      <c r="G18">
-        <v>-5.616561221641972</v>
-      </c>
-      <c r="H18">
-        <v>2.444295801457817E-08</v>
-      </c>
-      <c r="I18">
-        <v>0.02683499105778853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>0.3008315915136545</v>
       </c>
       <c r="C19">
-        <v>0.0001193771332952891</v>
+        <v>-0.2364960289964861</v>
       </c>
       <c r="D19">
-        <v>0.1597189710199908</v>
+        <v>-6.872209447759473</v>
       </c>
       <c r="E19">
-        <v>0.8731306504283634</v>
+        <v>1.036464349957353E-11</v>
       </c>
       <c r="F19">
-        <v>-0.2896669007874166</v>
-      </c>
-      <c r="G19">
-        <v>-7.834244306465234</v>
-      </c>
-      <c r="H19">
-        <v>1.071811920206088E-14</v>
-      </c>
-      <c r="I19">
-        <v>0.05091806641776275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>0.2727062941253868</v>
       </c>
       <c r="C20">
-        <v>-3.47381780324556E-05</v>
+        <v>-0.2891410147796482</v>
       </c>
       <c r="D20">
-        <v>-0.02811580255884787</v>
+        <v>-8.424263104288784</v>
       </c>
       <c r="E20">
-        <v>0.9775746941888006</v>
+        <v>1.076538869219784E-16</v>
       </c>
       <c r="F20">
-        <v>-0.3032799926287224</v>
-      </c>
-      <c r="G20">
-        <v>-8.568743246071278</v>
-      </c>
-      <c r="H20">
-        <v>3.340352402417055E-17</v>
-      </c>
-      <c r="I20">
-        <v>0.06031045828446513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>0.2977022457357078</v>
       </c>
       <c r="C21">
-        <v>-0.0002704478234244154</v>
+        <v>-0.2242665444767198</v>
       </c>
       <c r="D21">
-        <v>-0.2338878219609274</v>
+        <v>-6.366421629687817</v>
       </c>
       <c r="E21">
-        <v>0.8151139146570654</v>
+        <v>2.795517727252507E-10</v>
       </c>
       <c r="F21">
-        <v>-0.2659504998900541</v>
-      </c>
-      <c r="G21">
-        <v>-7.400064488431928</v>
-      </c>
-      <c r="H21">
-        <v>2.629193830926971E-13</v>
-      </c>
-      <c r="I21">
-        <v>0.04568129636726004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>0.2664534469533038</v>
       </c>
       <c r="C22">
-        <v>0.0002145178504861091</v>
+        <v>-0.1327614592533738</v>
       </c>
       <c r="D22">
-        <v>0.1266386470300798</v>
+        <v>-3.120637267352948</v>
       </c>
       <c r="E22">
-        <v>0.8992486608312136</v>
+        <v>0.001849786428792684</v>
       </c>
       <c r="F22">
-        <v>-0.1919284488601789</v>
-      </c>
-      <c r="G22">
-        <v>-4.210302432231959</v>
-      </c>
-      <c r="H22">
-        <v>2.750314061575465E-05</v>
-      </c>
-      <c r="I22">
-        <v>0.01525887920638047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>0.4079207201093412</v>
       </c>
       <c r="C23">
-        <v>-0.0003245031361050317</v>
+        <v>-0.09702947267918596</v>
       </c>
       <c r="D23">
-        <v>-0.3422421672006711</v>
+        <v>-3.016762072613541</v>
       </c>
       <c r="E23">
-        <v>0.7322315186232256</v>
+        <v>0.002611354320214556</v>
       </c>
       <c r="F23">
-        <v>-0.1239636145006076</v>
-      </c>
-      <c r="G23">
-        <v>-3.619604990536269</v>
-      </c>
-      <c r="H23">
-        <v>0.0003079516405847861</v>
-      </c>
-      <c r="I23">
-        <v>0.01132272305528115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>0.2586535556147443</v>
       </c>
       <c r="C24">
-        <v>-5.198165539802893E-05</v>
+        <v>-0.04752039772475949</v>
       </c>
       <c r="D24">
-        <v>-0.06101957686297084</v>
+        <v>-0.9201853459305094</v>
       </c>
       <c r="E24">
-        <v>0.9513561233284511</v>
+        <v>0.3577035171535559</v>
       </c>
       <c r="F24">
-        <v>-0.08029478126603858</v>
-      </c>
-      <c r="G24">
-        <v>-1.399006638724708</v>
-      </c>
-      <c r="H24">
-        <v>0.162129021159789</v>
-      </c>
-      <c r="I24">
-        <v>0.002003383091888855</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
